--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_004/frequency_features.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_004/frequency_features.xlsx
@@ -532,40 +532,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>113.9589998125729</v>
+        <v>70.73992028080484</v>
       </c>
       <c r="C2" t="n">
-        <v>412.20513327783</v>
+        <v>212.1770885888903</v>
       </c>
       <c r="D2" t="n">
-        <v>1.585404591289523e-07</v>
+        <v>1.173484022972949e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001345701346480648</v>
+        <v>0.0002609568362980972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1046211408758264</v>
+        <v>-0.4261440980771377</v>
       </c>
       <c r="J2" t="n">
-        <v>1.113354430362445</v>
+        <v>0.2176052497165978</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38929558470068</v>
+        <v>0.9538401120580121</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.8982291197013968</v>
+        <v>-0.77351153708886</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -581,54 +581,54 @@
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q2" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R2" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S2" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="B3" t="n">
-        <v>62.03294245044879</v>
+        <v>47.34773200702216</v>
       </c>
       <c r="C3" t="n">
-        <v>284.4025775998848</v>
+        <v>229.6496001025969</v>
       </c>
       <c r="D3" t="n">
-        <v>1.817400534160448e-07</v>
+        <v>5.251309025876971e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002508115294057307</v>
+        <v>0.0002031979341801943</v>
       </c>
       <c r="F3" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3627657453242619</v>
+        <v>0.04995033718270763</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5896326741452191</v>
+        <v>0.5498542757435911</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7576234860647353</v>
+        <v>1.065680937924987</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.33154188747026</v>
+        <v>-0.8998918770421594</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -644,54 +644,54 @@
         <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q3" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R3" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S3" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B4" t="n">
-        <v>65.13416479346277</v>
+        <v>46.99653462987559</v>
       </c>
       <c r="C4" t="n">
-        <v>221.1238806344612</v>
+        <v>233.0521373124401</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24726036164404e-06</v>
+        <v>6.7052847113146e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001569983723265833</v>
+        <v>0.0001350986917286352</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3809015484997824</v>
+        <v>0.1206373819465168</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3788344192070867</v>
+        <v>0.5046121995998397</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4375812589609941</v>
+        <v>1.387859483157284</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.055692744920427</v>
+        <v>-0.6035714348177629</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -707,16 +707,16 @@
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q4" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R4" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S4" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -724,37 +724,37 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>180.5732903107548</v>
+        <v>75.85072779091161</v>
       </c>
       <c r="C5" t="n">
-        <v>418.7832087187591</v>
+        <v>294.8030404294387</v>
       </c>
       <c r="D5" t="n">
-        <v>3.380437533626623e-06</v>
+        <v>9.530559609647806e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001549329258484005</v>
+        <v>0.0008886184162376986</v>
       </c>
       <c r="F5" t="n">
-        <v>9.4</v>
+        <v>15.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.055984153864063</v>
+        <v>0.4569320951259734</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5542359671598451</v>
+        <v>0.5669713941325192</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2321501815854168</v>
+        <v>1.707234418544953</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.876404153478207</v>
+        <v>-0.783273705174238</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -770,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q5" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R5" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S5" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>159.4698178802272</v>
+        <v>86.92493386406349</v>
       </c>
       <c r="C6" t="n">
-        <v>270.1949991324811</v>
+        <v>204.244009282302</v>
       </c>
       <c r="D6" t="n">
-        <v>3.829074677263075e-07</v>
+        <v>5.383664769742832e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001327023709173945</v>
+        <v>0.0001321354487393516</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9325720343872935</v>
+        <v>-0.5236441799039969</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2421147072932017</v>
+        <v>0.408746366708742</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.3199657898523829</v>
+        <v>0.2475781932952513</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.359548645041161</v>
+        <v>-1.165015905216995</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -833,16 +833,16 @@
         <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q6" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R6" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S6" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -850,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>93.21954601890704</v>
+        <v>360.3632082205219</v>
       </c>
       <c r="C7" t="n">
-        <v>208.5721964721932</v>
+        <v>774.0888705871372</v>
       </c>
       <c r="D7" t="n">
-        <v>6.73328180496082e-07</v>
+        <v>2.03204693846123e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>3.813110437276955e-05</v>
+        <v>0.0001497508426248642</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5451435439702166</v>
+        <v>2.170862700123626</v>
       </c>
       <c r="J7" t="n">
-        <v>0.22061957457437</v>
+        <v>1.282288586030335</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02824522123715179</v>
+        <v>4.86534373758582</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.9552335630255452</v>
+        <v>-0.1626968195125462</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -896,16 +896,16 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q7" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R7" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S7" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -913,37 +913,37 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>82.78749029649246</v>
+        <v>160.6875803749353</v>
       </c>
       <c r="C8" t="n">
-        <v>153.8959083394768</v>
+        <v>597.7949131888903</v>
       </c>
       <c r="D8" t="n">
-        <v>2.889098502264086e-07</v>
+        <v>9.630988847966941e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>6.629493590551972e-05</v>
+        <v>8.87361876454703e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>14.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4841373701549267</v>
+        <v>0.9679974721381644</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1817880548658856</v>
+        <v>0.8899411310724682</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.03662943570069941</v>
+        <v>3.28170338212596</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.836348489825277</v>
+        <v>-0.3930789533313681</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q8" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R8" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S8" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -976,37 +976,37 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>198.4196062821053</v>
+        <v>106.5770831109379</v>
       </c>
       <c r="C9" t="n">
-        <v>354.8862102215556</v>
+        <v>283.6718969622303</v>
       </c>
       <c r="D9" t="n">
-        <v>1.621121194485837e-07</v>
+        <v>8.012035491910774e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001050806519959672</v>
+        <v>0.000202603446408604</v>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.160348574749154</v>
+        <v>-0.6420306211502281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3671229956995345</v>
+        <v>0.4220397378103275</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5658206031904335</v>
+        <v>0.4461700580805442</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.879558588410674</v>
+        <v>-1.180634135550227</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1022,16 +1022,16 @@
         <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q9" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R9" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S9" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
@@ -1039,37 +1039,37 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>84.06524845801565</v>
+        <v>62.60016426009601</v>
       </c>
       <c r="C10" t="n">
-        <v>335.5395272426036</v>
+        <v>165.719892253923</v>
       </c>
       <c r="D10" t="n">
-        <v>8.757366618505394e-07</v>
+        <v>2.444240792078386e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001120289069580368</v>
+        <v>6.06756288370369e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4916096401053546</v>
+        <v>-0.3771094232535903</v>
       </c>
       <c r="J10" t="n">
-        <v>0.538094728408946</v>
+        <v>0.4365860304925728</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9495283338950835</v>
+        <v>0.3588599305185675</v>
       </c>
       <c r="L10" t="n">
-        <v>-1.132938996373461</v>
+        <v>-1.05997412355168</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1085,54 +1085,54 @@
         <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q10" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R10" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S10" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B11" t="n">
-        <v>43.54815688226153</v>
+        <v>64.92411209002417</v>
       </c>
       <c r="C11" t="n">
-        <v>313.0224113443383</v>
+        <v>208.5882234130372</v>
       </c>
       <c r="D11" t="n">
-        <v>2.3421336231279e-06</v>
+        <v>1.684086073010491e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001552291397848266</v>
+        <v>0.0002561024988083343</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2138131708378462</v>
+        <v>-0.1072057401903971</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6965781397761885</v>
+        <v>0.653520650372615</v>
       </c>
       <c r="K11" t="n">
-        <v>1.383551359029073</v>
+        <v>1.264325657917045</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.289489595469377</v>
+        <v>-1.258089551070593</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
         <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q11" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R11" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S11" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1165,37 +1165,37 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>203.9473201416309</v>
+        <v>77.16282836761262</v>
       </c>
       <c r="C12" t="n">
-        <v>437.2535556661742</v>
+        <v>371.4781950564197</v>
       </c>
       <c r="D12" t="n">
-        <v>1.411067949459226e-06</v>
+        <v>1.581923570809486e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001194709931086648</v>
+        <v>0.0007840719815466337</v>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.192674386793163</v>
+        <v>-0.4648363154675458</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5681060612874524</v>
+        <v>0.6652648843510983</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.06083402446823527</v>
+        <v>1.329035074259802</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.526661171859902</v>
+        <v>-1.916512684143209</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1211,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q12" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R12" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S12" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
@@ -1228,37 +1228,37 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>139.3667148911083</v>
+        <v>96.78980494206127</v>
       </c>
       <c r="C13" t="n">
-        <v>189.4980540737963</v>
+        <v>149.5949598276812</v>
       </c>
       <c r="D13" t="n">
-        <v>2.592932314714472e-08</v>
+        <v>1.017733100710941e-08</v>
       </c>
       <c r="E13" t="n">
-        <v>2.204882598805248e-05</v>
+        <v>2.182253298090789e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>14.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.8150100286029727</v>
+        <v>-0.5830711141088029</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1036118214534361</v>
+        <v>0.1661906308686853</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.5902409289156062</v>
+        <v>-0.2904106104342181</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.006399609890604</v>
+        <v>-0.8762288330274438</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1274,54 +1274,54 @@
         <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q13" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R13" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S13" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B14" t="n">
-        <v>139.2236431580045</v>
+        <v>73.29127763541376</v>
       </c>
       <c r="C14" t="n">
-        <v>241.7307323080616</v>
+        <v>421.6284939406112</v>
       </c>
       <c r="D14" t="n">
-        <v>2.144976641238494e-06</v>
+        <v>9.6284458912791e-08</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002081954113376873</v>
+        <v>7.889798939122405e-05</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.814173351801196</v>
+        <v>-0.1442405474297503</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2552547821106625</v>
+        <v>0.8532122301380038</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3347397821107378</v>
+        <v>2.035308430403484</v>
       </c>
       <c r="L14" t="n">
-        <v>-1.521707352256153</v>
+        <v>-1.025935208804788</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1337,54 +1337,54 @@
         <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q14" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R14" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S14" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B15" t="n">
-        <v>94.35217255140314</v>
+        <v>116.2135775631378</v>
       </c>
       <c r="C15" t="n">
-        <v>399.2147675613803</v>
+        <v>456.4339580129303</v>
       </c>
       <c r="D15" t="n">
-        <v>2.041448954151306e-06</v>
+        <v>9.370719104616887e-08</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0002614760951635108</v>
+        <v>0.0001449048762654436</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06067670292678304</v>
+        <v>0.201153712026248</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9951313272827659</v>
+        <v>1.136815330533914</v>
       </c>
       <c r="K15" t="n">
-        <v>2.497700798172213</v>
+        <v>2.430718300516312</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.167411957591153</v>
+        <v>-0.9659345848418777</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1400,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q15" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R15" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S15" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -1417,37 +1417,37 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>52.23240816955268</v>
+        <v>101.2401973909484</v>
       </c>
       <c r="C16" t="n">
-        <v>269.3048766063519</v>
+        <v>431.5519225539207</v>
       </c>
       <c r="D16" t="n">
-        <v>7.380462907257095e-08</v>
+        <v>2.514791108546302e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>6.508016335063546e-05</v>
+        <v>4.281988766524347e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>9.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3054526793541092</v>
+        <v>0.6098807071743877</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6144854955671912</v>
+        <v>0.6878621056955928</v>
       </c>
       <c r="K16" t="n">
-        <v>1.608452486242751</v>
+        <v>2.04483398003042</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.5680149041325319</v>
+        <v>-0.3735877311875191</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1463,16 +1463,16 @@
         <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q16" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R16" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S16" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -1480,37 +1480,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>67.45927328183942</v>
+        <v>91.67062692212019</v>
       </c>
       <c r="C17" t="n">
-        <v>206.5721122092187</v>
+        <v>179.8718971278416</v>
       </c>
       <c r="D17" t="n">
-        <v>5.096339086680547e-07</v>
+        <v>1.321135632363234e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>4.081408126431033e-05</v>
+        <v>3.947306195212861e-05</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3944986741628036</v>
+        <v>-0.5522326923019287</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3281223150227687</v>
+        <v>0.2896899068991366</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4328449864372008</v>
+        <v>0.2120685037883627</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.8753661248606207</v>
+        <v>-1.081227772049798</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1526,54 +1526,54 @@
         <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q17" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R17" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S17" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B18" t="n">
-        <v>118.5038034692244</v>
+        <v>91.46945699070181</v>
       </c>
       <c r="C18" t="n">
-        <v>461.5634665267958</v>
+        <v>401.5398729484974</v>
       </c>
       <c r="D18" t="n">
-        <v>3.084070439489191e-07</v>
+        <v>6.074341982657148e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000101675982255736</v>
+        <v>0.0001540784486334463</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3707524867799465</v>
+        <v>0.08209393976961182</v>
       </c>
       <c r="J18" t="n">
-        <v>1.171985865729545</v>
+        <v>0.9506545069346376</v>
       </c>
       <c r="K18" t="n">
-        <v>2.473918131702882</v>
+        <v>2.563889574139559</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.468781364249983</v>
+        <v>-1.481311315764928</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1589,54 +1589,54 @@
         <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q18" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R18" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S18" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>76.41874500345524</v>
+        <v>74.30004772814124</v>
       </c>
       <c r="C19" t="n">
-        <v>399.9362236953957</v>
+        <v>167.2742683822361</v>
       </c>
       <c r="D19" t="n">
-        <v>3.709882540783945e-07</v>
+        <v>1.765935430982585e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>8.527084894721445e-05</v>
+        <v>4.691235141143843e-05</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1139012668400075</v>
+        <v>-0.4475906489647064</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9390718502041079</v>
+        <v>0.2007343850292078</v>
       </c>
       <c r="K19" t="n">
-        <v>2.558788562921715</v>
+        <v>0.006442199885379703</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.8638053989505207</v>
+        <v>-0.8028688675316095</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1652,54 +1652,54 @@
         <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q19" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R19" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S19" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>100.9347024422745</v>
+        <v>333.421546361918</v>
       </c>
       <c r="C20" t="n">
-        <v>372.6656193304984</v>
+        <v>805.1859259131829</v>
       </c>
       <c r="D20" t="n">
-        <v>2.747328064205746e-07</v>
+        <v>4.393929959488327e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>4.341932417400287e-05</v>
+        <v>0.0001230505682509533</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5517596820624534</v>
+        <v>2.00856353230071</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9086532384390907</v>
+        <v>1.147215361471499</v>
       </c>
       <c r="K20" t="n">
-        <v>2.457304885550304</v>
+        <v>4.030853364815893</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.5498798271973953</v>
+        <v>-0.5150661583347512</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1715,54 +1715,54 @@
         <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q20" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R20" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S20" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>54.98613991957795</v>
+        <v>144.8357166273141</v>
       </c>
       <c r="C21" t="n">
-        <v>173.1105841952078</v>
+        <v>428.6137950528085</v>
       </c>
       <c r="D21" t="n">
-        <v>1.104730262226818e-06</v>
+        <v>1.204476176428653e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>3.629850034554879e-05</v>
+        <v>6.1809970995367e-05</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.02766148662849692</v>
+        <v>0.8725043170320125</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4966961225701984</v>
+        <v>1.037033532422174</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7678332494613574</v>
+        <v>2.670752180285484</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.7857138779157357</v>
+        <v>-0.7005737997065746</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1778,54 +1778,54 @@
         <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q21" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R21" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S21" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B22" t="n">
-        <v>218.8600355963667</v>
+        <v>64.88872553083517</v>
       </c>
       <c r="C22" t="n">
-        <v>654.6310779800472</v>
+        <v>254.7812632404844</v>
       </c>
       <c r="D22" t="n">
-        <v>1.878504337823328e-08</v>
+        <v>8.007261392766437e-08</v>
       </c>
       <c r="E22" t="n">
-        <v>5.018284671868196e-05</v>
+        <v>4.614823205199346e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.279883249101559</v>
+        <v>0.2040262100975156</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9321874896816618</v>
+        <v>0.7337846546823978</v>
       </c>
       <c r="K22" t="n">
-        <v>3.130957801231021</v>
+        <v>1.984204316086849</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03440105749270216</v>
+        <v>-0.668937972113648</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1841,54 +1841,54 @@
         <v>4</v>
       </c>
       <c r="P22" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q22" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R22" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S22" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="B23" t="n">
-        <v>76.01385943535618</v>
+        <v>55.64071004681846</v>
       </c>
       <c r="C23" t="n">
-        <v>285.0418041279242</v>
+        <v>305.8830858751753</v>
       </c>
       <c r="D23" t="n">
-        <v>3.329845199301275e-07</v>
+        <v>2.474036368529573e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002006554347533101</v>
+        <v>0.0001950081058027245</v>
       </c>
       <c r="F23" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.4445254937740128</v>
+        <v>0.07192971142090934</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4688167171468429</v>
+        <v>0.7377696767350059</v>
       </c>
       <c r="K23" t="n">
-        <v>1.013257900336994</v>
+        <v>1.793793612569709</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.134495026581408</v>
+        <v>-0.886370420252317</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1904,54 +1904,54 @@
         <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q23" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R23" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S23" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>102.1046081003169</v>
+        <v>39.96370323469201</v>
       </c>
       <c r="C24" t="n">
-        <v>325.5371011818546</v>
+        <v>262.1568292315171</v>
       </c>
       <c r="D24" t="n">
-        <v>7.622608107907738e-08</v>
+        <v>1.299984673724815e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0001927701030648838</v>
+        <v>0.0002071668906754598</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07431222314188718</v>
+        <v>-0.2407452002089879</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02992517370575</v>
+        <v>0.4657632881041349</v>
       </c>
       <c r="K24" t="n">
-        <v>2.41552432245237</v>
+        <v>1.005689148307218</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.24802334767189</v>
+        <v>-0.8954532889709019</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1967,16 +1967,16 @@
         <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q24" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R24" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S24" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
@@ -1984,37 +1984,37 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>279.8891172251451</v>
+        <v>163.4887116956897</v>
       </c>
       <c r="C25" t="n">
-        <v>497.8375012840022</v>
+        <v>240.0243212556474</v>
       </c>
       <c r="D25" t="n">
-        <v>1.633713645749226e-06</v>
+        <v>4.28984408441644e-08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0003226072971329967</v>
+        <v>1.491401691664877e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>15.8</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1.636778463304942</v>
+        <v>-0.9848717572029501</v>
       </c>
       <c r="J25" t="n">
-        <v>0.607056036989836</v>
+        <v>0.1456911721670593</v>
       </c>
       <c r="K25" t="n">
-        <v>2.608700071139703</v>
+        <v>-0.6356692354680762</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0792976415772777</v>
+        <v>-1.239769199291862</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2030,16 +2030,16 @@
         <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q25" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R25" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S25" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
@@ -2047,37 +2047,37 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>105.0279388403615</v>
+        <v>96.45218450348659</v>
       </c>
       <c r="C26" t="n">
-        <v>203.8527273044941</v>
+        <v>260.6825217496221</v>
       </c>
       <c r="D26" t="n">
-        <v>5.217460282724248e-07</v>
+        <v>4.203595950576714e-08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001246804326756199</v>
+        <v>0.0001234818559679433</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>11.1</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.6141984727506519</v>
+        <v>-0.5810372560450999</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2357196685740101</v>
+        <v>0.2793011450040514</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.1338584231035175</v>
+        <v>0.08074738926311165</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.029757368894567</v>
+        <v>-1.144277875355252</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2093,54 +2093,54 @@
         <v>4</v>
       </c>
       <c r="P26" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q26" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R26" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S26" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B27" t="n">
-        <v>203.7180912719395</v>
+        <v>103.2487229080577</v>
       </c>
       <c r="C27" t="n">
-        <v>657.6066366114819</v>
+        <v>483.4797125965731</v>
       </c>
       <c r="D27" t="n">
-        <v>2.272476205790468e-07</v>
+        <v>1.189122880533708e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0001258931040286443</v>
+        <v>0.0002696027545115048</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.191333867087365</v>
+        <v>-0.04072383365006491</v>
       </c>
       <c r="J27" t="n">
-        <v>1.207482996140468</v>
+        <v>1.205262843418106</v>
       </c>
       <c r="K27" t="n">
-        <v>3.901403398342796</v>
+        <v>2.712325258068144</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.2461904782983603</v>
+        <v>-1.048008294940133</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2156,54 +2156,54 @@
         <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q27" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R27" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S27" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B28" t="n">
-        <v>112.4337523241158</v>
+        <v>41.95553673458818</v>
       </c>
       <c r="C28" t="n">
-        <v>513.0203278387888</v>
+        <v>280.1593542722413</v>
       </c>
       <c r="D28" t="n">
-        <v>7.629094338174808e-07</v>
+        <v>1.047120360055054e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002459421854934328</v>
+        <v>0.0005482946122674757</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5392895435179191</v>
+        <v>0.2259070334957321</v>
       </c>
       <c r="J28" t="n">
-        <v>1.148618692011865</v>
+        <v>0.4685326436704394</v>
       </c>
       <c r="K28" t="n">
-        <v>3.198516386078049</v>
+        <v>1.500310486507897</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.072922845241754</v>
+        <v>-0.5019841742404719</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2219,54 +2219,54 @@
         <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q28" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R28" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S28" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B29" t="n">
-        <v>157.3782745877251</v>
+        <v>110.9722604576129</v>
       </c>
       <c r="C29" t="n">
-        <v>681.098804239941</v>
+        <v>395.5011186520099</v>
       </c>
       <c r="D29" t="n">
-        <v>3.300094266067985e-07</v>
+        <v>4.832556763033117e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0001934098328172571</v>
+        <v>0.0004845976061645825</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8287976261635074</v>
+        <v>0.05031235836266185</v>
       </c>
       <c r="J29" t="n">
-        <v>1.516294096483425</v>
+        <v>1.204639524770067</v>
       </c>
       <c r="K29" t="n">
-        <v>5.086433265829428</v>
+        <v>3.064699781472611</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.7596968969298391</v>
+        <v>-1.132080189105951</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2282,16 +2282,16 @@
         <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q29" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R29" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S29" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30">
@@ -2299,37 +2299,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>143.8397409485876</v>
+        <v>116.5685714485117</v>
       </c>
       <c r="C30" t="n">
-        <v>294.7097777608591</v>
+        <v>244.7880838973421</v>
       </c>
       <c r="D30" t="n">
-        <v>1.752560990852777e-06</v>
+        <v>3.263629401478046e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003211771428892647</v>
+        <v>0.0002608831015093088</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.8411680757227343</v>
+        <v>-0.7022203099307935</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4409878494106566</v>
+        <v>0.2391676863133637</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.1124824240116653</v>
+        <v>-0.04251119565164469</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.834811249414471</v>
+        <v>-1.185638674891335</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2345,54 +2345,54 @@
         <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q30" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R30" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S30" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B31" t="n">
-        <v>80.21395667407403</v>
+        <v>77.2577308453339</v>
       </c>
       <c r="C31" t="n">
-        <v>238.9237340226814</v>
+        <v>297.882142288872</v>
       </c>
       <c r="D31" t="n">
-        <v>9.531572823702922e-08</v>
+        <v>1.851034318389399e-08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0001156722529354933</v>
+        <v>0.0001296675010135922</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.1231592766120536</v>
+        <v>-0.31927001783397</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7554849998369505</v>
+        <v>0.8366176595721913</v>
       </c>
       <c r="K31" t="n">
-        <v>1.378716740415098</v>
+        <v>1.5811834400247</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.051574823076134</v>
+        <v>-1.454213186120008</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2408,54 +2408,54 @@
         <v>4</v>
       </c>
       <c r="P31" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q31" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R31" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S31" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B32" t="n">
-        <v>78.30592842742428</v>
+        <v>136.449372949501</v>
       </c>
       <c r="C32" t="n">
-        <v>170.4201571151479</v>
+        <v>624.8509026852843</v>
       </c>
       <c r="D32" t="n">
-        <v>1.872141581522502e-06</v>
+        <v>7.528460778898005e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0005018209496839669</v>
+        <v>0.000352535554357553</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.4579294060083291</v>
+        <v>0.4153181591484693</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1828887512773575</v>
+        <v>1.48876267833979</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.1176519436294929</v>
+        <v>4.176935688063413</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.9993487391549803</v>
+        <v>-0.8459786426638495</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2471,16 +2471,16 @@
         <v>4</v>
       </c>
       <c r="P32" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q32" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R32" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S32" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -2488,37 +2488,37 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>42.95171977344576</v>
+        <v>72.08125943130486</v>
       </c>
       <c r="C33" t="n">
-        <v>346.2029625186843</v>
+        <v>254.4725429210167</v>
       </c>
       <c r="D33" t="n">
-        <v>3.204656755594782e-06</v>
+        <v>5.517639992710812e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0004318266204822842</v>
+        <v>0.0005380024669681828</v>
       </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2511796477979284</v>
+        <v>-0.434224454405451</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4848818871842399</v>
+        <v>0.4950574756869107</v>
       </c>
       <c r="K33" t="n">
-        <v>1.176839468889356</v>
+        <v>1.166268266517054</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.100459865632528</v>
+        <v>-1.15116936110267</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2534,54 +2534,54 @@
         <v>4</v>
       </c>
       <c r="P33" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q33" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R33" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S33" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>60.15734825150558</v>
+        <v>136.0676111406379</v>
       </c>
       <c r="C34" t="n">
-        <v>337.1388184078203</v>
+        <v>221.3322732411805</v>
       </c>
       <c r="D34" t="n">
-        <v>5.089121011225074e-07</v>
+        <v>1.910576454524024e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001256821277796564</v>
+        <v>8.209311745567251e-05</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.02261683332917539</v>
+        <v>-0.8196844044616742</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6450268787737591</v>
+        <v>0.2132969107337382</v>
       </c>
       <c r="K34" t="n">
-        <v>1.400460577936811</v>
+        <v>-0.3211946786930552</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.9782999411682901</v>
+        <v>-1.147650574808023</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2597,16 +2597,16 @@
         <v>4</v>
       </c>
       <c r="P34" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q34" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R34" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S34" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35">
@@ -2614,37 +2614,37 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>96.12732338918208</v>
+        <v>85.39732308216844</v>
       </c>
       <c r="C35" t="n">
-        <v>368.6614685859716</v>
+        <v>197.020243572031</v>
       </c>
       <c r="D35" t="n">
-        <v>2.599802221810919e-07</v>
+        <v>5.535371745440312e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0001941714866550984</v>
+        <v>0.0001357861563707971</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5621480899952168</v>
+        <v>-0.5144417053142679</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5186043586128071</v>
+        <v>0.2734437683667453</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8293040628064191</v>
+        <v>0.1045670034858726</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.21752257376599</v>
+        <v>-1.028785396468806</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2660,16 +2660,16 @@
         <v>4</v>
       </c>
       <c r="P35" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q35" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R35" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S35" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36">
@@ -2677,37 +2677,37 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>113.0754876509661</v>
+        <v>75.56921256090679</v>
       </c>
       <c r="C36" t="n">
-        <v>250.1043086609737</v>
+        <v>260.6564965360405</v>
       </c>
       <c r="D36" t="n">
-        <v>3.854673239980897e-07</v>
+        <v>7.709020916074869e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0001836609630282963</v>
+        <v>0.0001801712592656772</v>
       </c>
       <c r="F36" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.6612601617015562</v>
+        <v>0.4552362202464265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3117084073504792</v>
+        <v>0.5631014588266463</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06117746088081474</v>
+        <v>1.990892357086083</v>
       </c>
       <c r="L36" t="n">
-        <v>-1.367635554071591</v>
+        <v>-0.2787083623387029</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2723,16 +2723,16 @@
         <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q36" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R36" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S36" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
@@ -2740,37 +2740,37 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>198.2507235890027</v>
+        <v>64.71163993546756</v>
       </c>
       <c r="C37" t="n">
-        <v>319.8094196942134</v>
+        <v>201.9317700858652</v>
       </c>
       <c r="D37" t="n">
-        <v>2.068501784044908e-07</v>
+        <v>4.221544974432362e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0002468590363632861</v>
+        <v>0.000242995490657428</v>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.159360956660834</v>
+        <v>-0.3898291562377562</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2434624109887844</v>
+        <v>0.451918565094545</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.507590256104228</v>
+        <v>0.5658415616426438</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.652037556303523</v>
+        <v>-1.0131419090621</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2786,54 +2786,54 @@
         <v>4</v>
       </c>
       <c r="P37" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q37" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R37" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S37" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B38" t="n">
-        <v>378.9620099151904</v>
+        <v>26.53948237579799</v>
       </c>
       <c r="C38" t="n">
-        <v>979.0751374200519</v>
+        <v>242.0482962194833</v>
       </c>
       <c r="D38" t="n">
-        <v>5.540450799997834e-07</v>
+        <v>4.472168551721139e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>8.031400068365817e-05</v>
+        <v>8.479055796053355e-05</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.216152104767195</v>
+        <v>-0.04527115876334283</v>
       </c>
       <c r="J38" t="n">
-        <v>1.496487497929793</v>
+        <v>0.4149090382004395</v>
       </c>
       <c r="K38" t="n">
-        <v>4.933756318720895</v>
+        <v>1.117258263299612</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.4213179408102419</v>
+        <v>-0.6540780237071647</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2849,54 +2849,54 @@
         <v>4</v>
       </c>
       <c r="P38" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q38" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R38" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S38" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B39" t="n">
-        <v>76.32931902712271</v>
+        <v>85.46280556379762</v>
       </c>
       <c r="C39" t="n">
-        <v>301.916500731321</v>
+        <v>391.5503220577762</v>
       </c>
       <c r="D39" t="n">
-        <v>1.667608641802272e-06</v>
+        <v>6.54545565297329e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0008923123385276891</v>
+        <v>0.0008712061523859899</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.09577953548661247</v>
+        <v>-0.01157871250240967</v>
       </c>
       <c r="J39" t="n">
-        <v>0.741821746822525</v>
+        <v>1.022879433731453</v>
       </c>
       <c r="K39" t="n">
-        <v>1.056204325170631</v>
+        <v>2.626035360156387</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.551361277350728</v>
+        <v>-1.584881391237272</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2912,16 +2912,16 @@
         <v>4</v>
       </c>
       <c r="P39" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q39" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R39" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S39" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40">
@@ -2929,37 +2929,37 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>150.3192131457525</v>
+        <v>88.60441527627363</v>
       </c>
       <c r="C40" t="n">
-        <v>226.2910955466414</v>
+        <v>384.4383357706487</v>
       </c>
       <c r="D40" t="n">
-        <v>1.849268957007322e-07</v>
+        <v>8.457615916160576e-08</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001622640630389253</v>
+        <v>0.0001643173375433632</v>
       </c>
       <c r="F40" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.8790597259985531</v>
+        <v>-0.5337615378088771</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1478075817037669</v>
+        <v>0.7347177915377546</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.611282118089528</v>
+        <v>1.2043363362344</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.173568833165312</v>
+        <v>-1.38332370070857</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2975,54 +2975,54 @@
         <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q40" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R40" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S40" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B41" t="n">
-        <v>58.68411163065329</v>
+        <v>54.33510867002229</v>
       </c>
       <c r="C41" t="n">
-        <v>303.0279595454921</v>
+        <v>381.322217081466</v>
       </c>
       <c r="D41" t="n">
-        <v>5.196635509166315e-07</v>
+        <v>2.089131092328834e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002541703485960938</v>
+        <v>0.0005090695987216027</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.2605686490688359</v>
+        <v>-0.05921551597017136</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6444183665720947</v>
+        <v>0.7548451508612577</v>
       </c>
       <c r="K41" t="n">
-        <v>1.45435621626492</v>
+        <v>2.375088542053138</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.402211952496876</v>
+        <v>-0.6411295673005052</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3038,54 +3038,54 @@
         <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q41" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R41" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S41" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B42" t="n">
-        <v>112.8742899637544</v>
+        <v>48.43302649046765</v>
       </c>
       <c r="C42" t="n">
-        <v>284.5752722737602</v>
+        <v>246.4047129919038</v>
       </c>
       <c r="D42" t="n">
-        <v>3.46844767285394e-07</v>
+        <v>1.009343559492937e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0002671134394564477</v>
+        <v>0.0002565511647406963</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.6600835670394996</v>
+        <v>-0.2732120346544587</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3973450927842319</v>
+        <v>0.4974798780724785</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2544406540977933</v>
+        <v>0.835117303945396</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.383440758501647</v>
+        <v>-1.141976555009216</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3101,16 +3101,16 @@
         <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q42" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R42" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S42" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
@@ -3118,37 +3118,37 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>48.34487240729223</v>
+        <v>371.3214860880939</v>
       </c>
       <c r="C43" t="n">
-        <v>268.9532048021732</v>
+        <v>750.5468092616197</v>
       </c>
       <c r="D43" t="n">
-        <v>7.47211805546406e-06</v>
+        <v>1.372175625991484e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006477307612444399</v>
+        <v>0.0006430288331408535</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2827185520894283</v>
+        <v>2.236876422217433</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4367674785746991</v>
+        <v>1.148772373356701</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8307295648713158</v>
+        <v>4.165980305127922</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.305536393766317</v>
+        <v>-0.3393666255430701</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3164,16 +3164,16 @@
         <v>4</v>
       </c>
       <c r="P43" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q43" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R43" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S43" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44">
@@ -3181,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>86.16403344548931</v>
+        <v>283.9227581751563</v>
       </c>
       <c r="C44" t="n">
-        <v>230.7772806315624</v>
+        <v>801.2043500580221</v>
       </c>
       <c r="D44" t="n">
-        <v>2.4633727827321e-07</v>
+        <v>1.032784671979116e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000243958242073301</v>
+        <v>0.0003223460969858868</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.5038832365233293</v>
+        <v>1.710378061296123</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3037572274883253</v>
+        <v>1.762174863662898</v>
       </c>
       <c r="K44" t="n">
-        <v>0.07222615519984232</v>
+        <v>5.131803487045389</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.10604222256084</v>
+        <v>-0.8646747606836647</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3227,16 +3227,16 @@
         <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q44" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R44" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S44" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45">
@@ -3244,37 +3244,37 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>239.8668949905722</v>
+        <v>65.41874851769492</v>
       </c>
       <c r="C45" t="n">
-        <v>783.296825188905</v>
+        <v>227.5971447184283</v>
       </c>
       <c r="D45" t="n">
-        <v>5.619471923262025e-06</v>
+        <v>7.535844263211103e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0009649339751552429</v>
+        <v>0.0004943259657808724</v>
       </c>
       <c r="F45" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.402730380061826</v>
+        <v>-0.394088846492138</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02309469833145</v>
+        <v>0.3100399648100825</v>
       </c>
       <c r="K45" t="n">
-        <v>2.958010056797369</v>
+        <v>0.486744757302724</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.8105812172966487</v>
+        <v>-0.8649168982438139</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3290,54 +3290,54 @@
         <v>4</v>
       </c>
       <c r="P45" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q45" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R45" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S45" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>97.23122919600641</v>
+        <v>183.1503717078606</v>
       </c>
       <c r="C46" t="n">
-        <v>498.5443783613336</v>
+        <v>452.5103529912031</v>
       </c>
       <c r="D46" t="n">
-        <v>3.13224361660639e-06</v>
+        <v>5.198597343611324e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0005259862670721881</v>
+        <v>0.0006731168310881613</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1998161725186629</v>
+        <v>1.103315492216028</v>
       </c>
       <c r="J46" t="n">
-        <v>1.079538492901419</v>
+        <v>0.994555655723902</v>
       </c>
       <c r="K46" t="n">
-        <v>2.752398059383776</v>
+        <v>2.619620534930003</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.112177685569844</v>
+        <v>-0.7874513495840973</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3353,54 +3353,54 @@
         <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q46" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R46" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S46" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>105.9759433984054</v>
+        <v>155.7385184784848</v>
       </c>
       <c r="C47" t="n">
-        <v>559.2097375866186</v>
+        <v>283.2664459654031</v>
       </c>
       <c r="D47" t="n">
-        <v>4.309850627914667e-06</v>
+        <v>1.435495429904798e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000583259755627593</v>
+        <v>0.000552064263775572</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1091903520276114</v>
+        <v>-0.9381838462559323</v>
       </c>
       <c r="J47" t="n">
-        <v>1.093564339102883</v>
+        <v>0.2437917514695613</v>
       </c>
       <c r="K47" t="n">
-        <v>3.140245515283814</v>
+        <v>-0.3552698260186332</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.185481255647654</v>
+        <v>-1.622539285225713</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3416,54 +3416,54 @@
         <v>4</v>
       </c>
       <c r="P47" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q47" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R47" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S47" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B48" t="n">
-        <v>137.2999148165543</v>
+        <v>57.955843529856</v>
       </c>
       <c r="C48" t="n">
-        <v>284.9130572462868</v>
+        <v>421.0808836320255</v>
       </c>
       <c r="D48" t="n">
-        <v>1.569384887888951e-06</v>
+        <v>2.336929015643891e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001483281544425822</v>
+        <v>0.002656592872431298</v>
       </c>
       <c r="F48" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.8029234784593823</v>
+        <v>-0.06246849395628886</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2791388581371113</v>
+        <v>0.9369438618376238</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.1488834038145852</v>
+        <v>3.048793529044868</v>
       </c>
       <c r="L48" t="n">
-        <v>-1.443488888323482</v>
+        <v>-1.408561376229688</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3479,16 +3479,16 @@
         <v>4</v>
       </c>
       <c r="P48" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q48" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R48" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S48" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -3496,37 +3496,37 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>154.9982475054401</v>
+        <v>55.98085089162528</v>
       </c>
       <c r="C49" t="n">
-        <v>373.8450753365912</v>
+        <v>215.9788315476537</v>
       </c>
       <c r="D49" t="n">
-        <v>4.851961011844755e-06</v>
+        <v>1.267167098207928e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0009387095824782694</v>
+        <v>0.0009418723062305911</v>
       </c>
       <c r="F49" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.9064225000318137</v>
+        <v>-0.337234041515815</v>
       </c>
       <c r="J49" t="n">
-        <v>0.479904516158803</v>
+        <v>0.3147863685491901</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5987475730777592</v>
+        <v>0.4085222503065393</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.925101556239887</v>
+        <v>-0.9839809813350802</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3542,54 +3542,54 @@
         <v>4</v>
       </c>
       <c r="P49" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q49" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R49" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S49" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B50" t="n">
-        <v>107.2588625412452</v>
+        <v>30.41266466884044</v>
       </c>
       <c r="C50" t="n">
-        <v>331.4940327713464</v>
+        <v>229.8798712372049</v>
       </c>
       <c r="D50" t="n">
-        <v>7.217944147598711e-07</v>
+        <v>2.427593604068868e-08</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0008139536232687633</v>
+        <v>0.0006848461322131393</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.6272448101827202</v>
+        <v>-0.1718816344825399</v>
       </c>
       <c r="J50" t="n">
-        <v>0.49997835498857</v>
+        <v>0.3903807441255702</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1690522480422219</v>
+        <v>1.183666030372318</v>
       </c>
       <c r="L50" t="n">
-        <v>-1.729728441977617</v>
+        <v>-0.7898244587506029</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3605,16 +3605,16 @@
         <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q50" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R50" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S50" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51">
@@ -3622,37 +3622,37 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>106.6490545739358</v>
+        <v>65.41934893497719</v>
       </c>
       <c r="C51" t="n">
-        <v>368.2811921595037</v>
+        <v>263.3325477319123</v>
       </c>
       <c r="D51" t="n">
-        <v>1.721213487960678e-06</v>
+        <v>6.054436823748796e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000689712269749997</v>
+        <v>0.0004579685790840591</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.623678681718923</v>
+        <v>-0.394092463463718</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5520660953302301</v>
+        <v>0.5133861443449432</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7918051934644864</v>
+        <v>0.8620421797338188</v>
       </c>
       <c r="L51" t="n">
-        <v>-1.60076467084484</v>
+        <v>-1.229429400146135</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3668,54 +3668,54 @@
         <v>4</v>
       </c>
       <c r="P51" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q51" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R51" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S51" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B52" t="n">
-        <v>112.7627013856408</v>
+        <v>29.00201993886935</v>
       </c>
       <c r="C52" t="n">
-        <v>250.6256613965848</v>
+        <v>238.7210962687129</v>
       </c>
       <c r="D52" t="n">
-        <v>1.389459931540834e-06</v>
+        <v>6.245057105929798e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0007188498744487585</v>
+        <v>0.001176282409793403</v>
       </c>
       <c r="F52" t="n">
-        <v>3.7</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.6594310022552093</v>
+        <v>0.06457017129410215</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2994858920231046</v>
+        <v>0.4297813100043248</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08474864851121659</v>
+        <v>1.335914037548649</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.400033881424657</v>
+        <v>-0.6606758017832611</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3731,16 +3731,16 @@
         <v>4</v>
       </c>
       <c r="P52" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q52" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R52" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S52" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
@@ -3748,37 +3748,37 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>81.14984267455431</v>
+        <v>70.4573685824607</v>
       </c>
       <c r="C53" t="n">
-        <v>270.2696207926879</v>
+        <v>288.7279143205045</v>
       </c>
       <c r="D53" t="n">
-        <v>2.929231322692901e-06</v>
+        <v>3.268362220135319e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001347801551421705</v>
+        <v>0.0003900366321369453</v>
       </c>
       <c r="F53" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.4745604834769258</v>
+        <v>-0.4244419794124138</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4350748711338464</v>
+        <v>0.4391236513319506</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3043040572216583</v>
+        <v>0.7098449530739089</v>
       </c>
       <c r="L53" t="n">
-        <v>-1.320074712422206</v>
+        <v>-1.126441963448005</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3794,54 +3794,54 @@
         <v>4</v>
       </c>
       <c r="P53" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q53" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R53" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S53" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.1169590643274854</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>56.11213777778316</v>
+        <v>88.7543766611581</v>
       </c>
       <c r="C54" t="n">
-        <v>282.5962412330758</v>
+        <v>192.5374938960056</v>
       </c>
       <c r="D54" t="n">
-        <v>3.858736670143151e-07</v>
+        <v>3.987088974614566e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0002102770973496483</v>
+        <v>0.0001571180473878508</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.315739528909466</v>
+        <v>-0.5346649196455309</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6705032498451591</v>
+        <v>0.2257001464190484</v>
       </c>
       <c r="K54" t="n">
-        <v>1.446403849801435</v>
+        <v>-0.004834918149802281</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.9888196719143724</v>
+        <v>-0.8981272750628275</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
         <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q54" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R54" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S54" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -3874,37 +3874,37 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>123.3240827721505</v>
+        <v>76.24804143259632</v>
       </c>
       <c r="C55" t="n">
-        <v>235.2670890833734</v>
+        <v>188.5204432565176</v>
       </c>
       <c r="D55" t="n">
-        <v>1.973151559619944e-07</v>
+        <v>4.277120658700187e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0003190861361629375</v>
+        <v>0.0002972650375910299</v>
       </c>
       <c r="F55" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.7211934665038042</v>
+        <v>-0.4593255507987731</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2611458395520638</v>
+        <v>0.2146819818326567</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.2634037318827614</v>
+        <v>0.3435647395134738</v>
       </c>
       <c r="L55" t="n">
-        <v>-1.24858167171076</v>
+        <v>-1.019161012451502</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3920,54 +3920,54 @@
         <v>4</v>
       </c>
       <c r="P55" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q55" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R55" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S55" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="B56" t="n">
-        <v>118.5484253822026</v>
+        <v>114.5275581142842</v>
       </c>
       <c r="C56" t="n">
-        <v>491.9573593363901</v>
+        <v>415.124607244798</v>
       </c>
       <c r="D56" t="n">
-        <v>1.961934831708249e-06</v>
+        <v>3.895809556913187e-07</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002820892714893568</v>
+        <v>0.0003099947468460434</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4133272899559847</v>
+        <v>0.1447903175551409</v>
       </c>
       <c r="J56" t="n">
-        <v>1.186156492162336</v>
+        <v>1.180817252939452</v>
       </c>
       <c r="K56" t="n">
-        <v>3.330837141707914</v>
+        <v>2.61558796032614</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.207305542713649</v>
+        <v>-1.189784971157483</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3983,16 +3983,16 @@
         <v>4</v>
       </c>
       <c r="P56" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q56" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R56" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S56" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57">
@@ -4000,37 +4000,37 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>63.94179454306847</v>
+        <v>101.6385880802377</v>
       </c>
       <c r="C57" t="n">
-        <v>346.8624664900501</v>
+        <v>262.9409846424941</v>
       </c>
       <c r="D57" t="n">
-        <v>4.811524170065601e-05</v>
+        <v>3.947026729081208e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0015309284185977</v>
+        <v>0.0009400386537812319</v>
       </c>
       <c r="F57" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.3739286230588799</v>
+        <v>-0.6122806510857695</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5988274138674632</v>
+        <v>0.2852567481107817</v>
       </c>
       <c r="K57" t="n">
-        <v>1.82931217907714</v>
+        <v>0.06412357216394392</v>
       </c>
       <c r="L57" t="n">
-        <v>-1.337239156283965</v>
+        <v>-1.184531694054241</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         <v>4</v>
       </c>
       <c r="P57" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q57" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R57" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S57" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
@@ -4063,37 +4063,37 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>135.9056174536073</v>
+        <v>174.9361190116546</v>
       </c>
       <c r="C58" t="n">
-        <v>427.8839867298647</v>
+        <v>346.4830251948538</v>
       </c>
       <c r="D58" t="n">
-        <v>2.570960330887917e-07</v>
+        <v>1.344739880382397e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0002511786334944685</v>
+        <v>0.000638215449314371</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.7947696927111538</v>
+        <v>-1.053832042238883</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5489450464168167</v>
+        <v>0.4302112905747041</v>
       </c>
       <c r="K58" t="n">
-        <v>0.438059002730425</v>
+        <v>-0.07234273139640587</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.872134706776432</v>
+        <v>-2.019285534088266</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4109,16 +4109,16 @@
         <v>4</v>
       </c>
       <c r="P58" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q58" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R58" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S58" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59">
@@ -4126,37 +4126,37 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>153.8459148911467</v>
+        <v>126.7543457719057</v>
       </c>
       <c r="C59" t="n">
-        <v>335.2414224023098</v>
+        <v>315.1842758754489</v>
       </c>
       <c r="D59" t="n">
-        <v>8.84756694214693e-07</v>
+        <v>8.516520059248526e-07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000896774586485005</v>
+        <v>0.001031481175435408</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.8996837128137238</v>
+        <v>-0.7635803962162994</v>
       </c>
       <c r="J59" t="n">
-        <v>0.42127164281494</v>
+        <v>0.3333776953685418</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.0535204854859049</v>
+        <v>0.2209397399620649</v>
       </c>
       <c r="L59" t="n">
-        <v>-1.598793081125995</v>
+        <v>-1.460321512587167</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -4172,54 +4172,54 @@
         <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q59" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R59" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S59" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>84.03246051498633</v>
+        <v>325.970691730967</v>
       </c>
       <c r="C60" t="n">
-        <v>432.0926364025702</v>
+        <v>690.2219351414519</v>
       </c>
       <c r="D60" t="n">
-        <v>4.281962577171733e-07</v>
+        <v>1.118565511806992e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000352879437565228</v>
+        <v>0.0005742622741148153</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.03702652230366217</v>
+        <v>1.963678865849199</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8951260432227249</v>
+        <v>0.7168668873277575</v>
       </c>
       <c r="K60" t="n">
-        <v>2.363608303278047</v>
+        <v>3.382954861071762</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.8924933243964606</v>
+        <v>0.5988726810763236</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4235,54 +4235,54 @@
         <v>4</v>
       </c>
       <c r="P60" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q60" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R60" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S60" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.05847953216374269</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>71.79037449344703</v>
+        <v>177.6032176805808</v>
       </c>
       <c r="C61" t="n">
-        <v>371.7401493740381</v>
+        <v>598.1220932310907</v>
       </c>
       <c r="D61" t="n">
-        <v>1.143928855794353e-06</v>
+        <v>1.473980448471532e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0003334169843706356</v>
+        <v>0.0006920150385783807</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.3004085923400471</v>
+        <v>1.069898901690246</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8032593995410531</v>
+        <v>1.074744697701195</v>
       </c>
       <c r="K61" t="n">
-        <v>1.605326661222939</v>
+        <v>3.230319050465886</v>
       </c>
       <c r="L61" t="n">
-        <v>-1.28757822103336</v>
+        <v>-0.5956195102754086</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -4298,16 +4298,16 @@
         <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="Q61" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="R61" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S61" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
